--- a/Files/data/Processed Data/Tabelas/New Processed Data.xlsx
+++ b/Files/data/Processed Data/Tabelas/New Processed Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\timetabling-UENF\Files\data\Processed Data\Tabelas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F37690-819E-4AF2-BF33-42AE6F3E03AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A569225C-84E8-42B3-BBC1-26A1A983D8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="10320" activeTab="1" xr2:uid="{8E5F8062-A439-408F-9183-A7410AC17F53}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="10320" activeTab="4" xr2:uid="{8E5F8062-A439-408F-9183-A7410AC17F53}"/>
   </bookViews>
   <sheets>
     <sheet name="Professors" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5438" uniqueCount="2209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5519" uniqueCount="2236">
   <si>
     <t>id</t>
   </si>
@@ -6673,6 +6673,87 @@
   </si>
   <si>
     <t>Agronomia</t>
+  </si>
+  <si>
+    <t>CIV01332</t>
+  </si>
+  <si>
+    <t>Análise Estrutural I</t>
+  </si>
+  <si>
+    <t>CCH04301</t>
+  </si>
+  <si>
+    <t>Seminário de Monografia II</t>
+  </si>
+  <si>
+    <t>CCH04302</t>
+  </si>
+  <si>
+    <t>Seminário de Monografia</t>
+  </si>
+  <si>
+    <t>CCH04401</t>
+  </si>
+  <si>
+    <t>Seminário de Monografia I</t>
+  </si>
+  <si>
+    <t>CCH04405</t>
+  </si>
+  <si>
+    <t>CCH04505</t>
+  </si>
+  <si>
+    <t>Seminários: Sociologia, Filosofia e Ensino (Optativa)</t>
+  </si>
+  <si>
+    <t>EAD08220</t>
+  </si>
+  <si>
+    <t>Seminário de Práticas Educativas 2</t>
+  </si>
+  <si>
+    <t>EAD08232</t>
+  </si>
+  <si>
+    <t>Seminário de Práticas Educativas 3</t>
+  </si>
+  <si>
+    <t>EAD08250</t>
+  </si>
+  <si>
+    <t>Seminário de Práticas Educativas 6</t>
+  </si>
+  <si>
+    <t>EAD08255</t>
+  </si>
+  <si>
+    <t>Seminário de Práticas Educativas 7</t>
+  </si>
+  <si>
+    <t>LEL04404</t>
+  </si>
+  <si>
+    <t>Seminário Profissionalizante: Estágio Supervisionado</t>
+  </si>
+  <si>
+    <t>QUI11642</t>
+  </si>
+  <si>
+    <t>Seminários de Práticas Educativas em Química I</t>
+  </si>
+  <si>
+    <t>QUI12654</t>
+  </si>
+  <si>
+    <t>Seminários de Práticas Educativas em Química II</t>
+  </si>
+  <si>
+    <t>QUI12675</t>
+  </si>
+  <si>
+    <t>Seminários de Práticas Educativas em Química III</t>
   </si>
 </sst>
 </file>
@@ -7093,7 +7174,7 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A333" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E345" sqref="E345"/>
+      <selection pane="bottomLeft" activeCell="B342" sqref="B342:F342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12849,8 +12930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC27EB1-4516-43E0-8132-DAAC458360A4}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -14362,11 +14443,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A907F8B7-64E2-460F-9708-4AB246709F7B}">
-  <dimension ref="A1:Q756"/>
+  <dimension ref="A1:Q775"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A695" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I777" sqref="I777"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -49995,6 +50076,515 @@
       <c r="Q756">
         <f t="shared" si="60"/>
         <v>5</v>
+      </c>
+    </row>
+    <row r="757" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A757">
+        <v>776</v>
+      </c>
+      <c r="B757" s="4">
+        <v>13</v>
+      </c>
+      <c r="D757" t="s">
+        <v>2209</v>
+      </c>
+      <c r="E757" t="s">
+        <v>2210</v>
+      </c>
+      <c r="F757" t="s">
+        <v>45</v>
+      </c>
+      <c r="G757" t="s">
+        <v>58</v>
+      </c>
+      <c r="H757">
+        <v>2023</v>
+      </c>
+      <c r="I757">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="758" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A758">
+        <v>777</v>
+      </c>
+      <c r="B758" s="4">
+        <v>13</v>
+      </c>
+      <c r="D758" s="5" t="s">
+        <v>2211</v>
+      </c>
+      <c r="E758" s="5" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F758" t="s">
+        <v>77</v>
+      </c>
+      <c r="G758" t="s">
+        <v>84</v>
+      </c>
+      <c r="H758">
+        <v>2003</v>
+      </c>
+      <c r="I758">
+        <v>1</v>
+      </c>
+      <c r="L758" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="759" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A759">
+        <v>778</v>
+      </c>
+      <c r="B759" s="4">
+        <v>13</v>
+      </c>
+      <c r="D759" s="5" t="s">
+        <v>2213</v>
+      </c>
+      <c r="E759" s="5" t="s">
+        <v>2214</v>
+      </c>
+      <c r="F759" t="s">
+        <v>77</v>
+      </c>
+      <c r="G759" t="s">
+        <v>84</v>
+      </c>
+      <c r="H759">
+        <v>2008</v>
+      </c>
+      <c r="I759">
+        <v>1</v>
+      </c>
+      <c r="L759" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="760" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A760">
+        <v>779</v>
+      </c>
+      <c r="B760" s="4">
+        <v>13</v>
+      </c>
+      <c r="D760" s="5" t="s">
+        <v>2215</v>
+      </c>
+      <c r="E760" s="5" t="s">
+        <v>2216</v>
+      </c>
+      <c r="F760" t="s">
+        <v>77</v>
+      </c>
+      <c r="G760" t="s">
+        <v>84</v>
+      </c>
+      <c r="H760">
+        <v>2003</v>
+      </c>
+      <c r="I760">
+        <v>1</v>
+      </c>
+      <c r="L760" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="761" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A761">
+        <v>780</v>
+      </c>
+      <c r="B761" s="4">
+        <v>13</v>
+      </c>
+      <c r="D761" s="5" t="s">
+        <v>2217</v>
+      </c>
+      <c r="E761" s="5" t="s">
+        <v>2214</v>
+      </c>
+      <c r="F761" t="s">
+        <v>77</v>
+      </c>
+      <c r="G761" t="s">
+        <v>84</v>
+      </c>
+      <c r="H761">
+        <v>2010</v>
+      </c>
+      <c r="I761">
+        <v>2</v>
+      </c>
+      <c r="L761" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="762" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A762">
+        <v>781</v>
+      </c>
+      <c r="B762" s="4">
+        <v>13</v>
+      </c>
+      <c r="D762" s="5" t="s">
+        <v>2218</v>
+      </c>
+      <c r="E762" s="5" t="s">
+        <v>2219</v>
+      </c>
+      <c r="H762">
+        <v>2008</v>
+      </c>
+      <c r="I762">
+        <v>2</v>
+      </c>
+      <c r="L762" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="763" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A763">
+        <v>782</v>
+      </c>
+      <c r="B763" s="4">
+        <v>13</v>
+      </c>
+      <c r="D763" s="5" t="s">
+        <v>1584</v>
+      </c>
+      <c r="E763" s="5" t="s">
+        <v>1585</v>
+      </c>
+      <c r="F763" t="s">
+        <v>45</v>
+      </c>
+      <c r="G763" t="s">
+        <v>58</v>
+      </c>
+      <c r="H763">
+        <v>2004</v>
+      </c>
+      <c r="I763">
+        <v>1</v>
+      </c>
+      <c r="L763" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="764" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A764">
+        <v>783</v>
+      </c>
+      <c r="B764" s="4">
+        <v>13</v>
+      </c>
+      <c r="D764" s="5" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E764" s="5" t="s">
+        <v>2221</v>
+      </c>
+      <c r="F764" t="s">
+        <v>77</v>
+      </c>
+      <c r="H764">
+        <v>2015</v>
+      </c>
+      <c r="I764">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="765" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A765">
+        <v>784</v>
+      </c>
+      <c r="B765" s="4">
+        <v>13</v>
+      </c>
+      <c r="D765" s="5" t="s">
+        <v>2222</v>
+      </c>
+      <c r="E765" s="5" t="s">
+        <v>2223</v>
+      </c>
+      <c r="F765" t="s">
+        <v>77</v>
+      </c>
+      <c r="H765">
+        <v>2016</v>
+      </c>
+      <c r="I765">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="766" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A766">
+        <v>785</v>
+      </c>
+      <c r="B766" s="4">
+        <v>13</v>
+      </c>
+      <c r="D766" s="5" t="s">
+        <v>2224</v>
+      </c>
+      <c r="E766" s="5" t="s">
+        <v>2225</v>
+      </c>
+      <c r="F766" t="s">
+        <v>77</v>
+      </c>
+      <c r="H766">
+        <v>2017</v>
+      </c>
+      <c r="I766">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="767" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A767">
+        <v>786</v>
+      </c>
+      <c r="B767" s="4">
+        <v>13</v>
+      </c>
+      <c r="D767" s="5" t="s">
+        <v>2226</v>
+      </c>
+      <c r="E767" s="5" t="s">
+        <v>2227</v>
+      </c>
+      <c r="F767" t="s">
+        <v>77</v>
+      </c>
+      <c r="H767">
+        <v>2018</v>
+      </c>
+      <c r="I767">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="768" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A768">
+        <v>787</v>
+      </c>
+      <c r="B768" s="4">
+        <v>13</v>
+      </c>
+      <c r="D768" s="5" t="s">
+        <v>2228</v>
+      </c>
+      <c r="E768" s="5" t="s">
+        <v>2229</v>
+      </c>
+      <c r="F768" t="s">
+        <v>77</v>
+      </c>
+      <c r="G768" t="s">
+        <v>84</v>
+      </c>
+      <c r="H768">
+        <v>2004</v>
+      </c>
+      <c r="I768">
+        <v>2</v>
+      </c>
+      <c r="L768" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="769" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A769">
+        <v>788</v>
+      </c>
+      <c r="B769" s="4">
+        <v>13</v>
+      </c>
+      <c r="D769" s="5" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E769" s="5" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F769" t="s">
+        <v>45</v>
+      </c>
+      <c r="G769" t="s">
+        <v>54</v>
+      </c>
+      <c r="H769">
+        <v>2013</v>
+      </c>
+      <c r="I769">
+        <v>1</v>
+      </c>
+      <c r="L769" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="770" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A770">
+        <v>789</v>
+      </c>
+      <c r="B770" s="4">
+        <v>13</v>
+      </c>
+      <c r="D770" s="5" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E770" s="5" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F770" t="s">
+        <v>45</v>
+      </c>
+      <c r="G770" t="s">
+        <v>54</v>
+      </c>
+      <c r="H770">
+        <v>2008</v>
+      </c>
+      <c r="I770">
+        <v>2</v>
+      </c>
+      <c r="L770" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="771" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A771">
+        <v>790</v>
+      </c>
+      <c r="B771" s="4">
+        <v>13</v>
+      </c>
+      <c r="D771" s="5" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E771" s="5" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F771" t="s">
+        <v>45</v>
+      </c>
+      <c r="G771" t="s">
+        <v>54</v>
+      </c>
+      <c r="H771">
+        <v>2003</v>
+      </c>
+      <c r="I771">
+        <v>1</v>
+      </c>
+      <c r="L771" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="772" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A772">
+        <v>791</v>
+      </c>
+      <c r="B772" s="4">
+        <v>13</v>
+      </c>
+      <c r="D772" s="5" t="s">
+        <v>1965</v>
+      </c>
+      <c r="E772" s="5" t="s">
+        <v>1966</v>
+      </c>
+      <c r="F772" t="s">
+        <v>45</v>
+      </c>
+      <c r="G772" t="s">
+        <v>62</v>
+      </c>
+      <c r="H772">
+        <v>2017</v>
+      </c>
+      <c r="I772">
+        <v>2</v>
+      </c>
+      <c r="L772" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="773" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A773">
+        <v>792</v>
+      </c>
+      <c r="B773" s="4">
+        <v>13</v>
+      </c>
+      <c r="D773" s="5" t="s">
+        <v>2230</v>
+      </c>
+      <c r="E773" s="5" t="s">
+        <v>2231</v>
+      </c>
+      <c r="F773" t="s">
+        <v>45</v>
+      </c>
+      <c r="G773" t="s">
+        <v>56</v>
+      </c>
+      <c r="H773">
+        <v>2024</v>
+      </c>
+      <c r="I773">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="774" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A774">
+        <v>793</v>
+      </c>
+      <c r="B774" s="4">
+        <v>13</v>
+      </c>
+      <c r="D774" s="5" t="s">
+        <v>2232</v>
+      </c>
+      <c r="E774" s="5" t="s">
+        <v>2233</v>
+      </c>
+      <c r="F774" t="s">
+        <v>45</v>
+      </c>
+      <c r="G774" t="s">
+        <v>56</v>
+      </c>
+      <c r="H774">
+        <v>2024</v>
+      </c>
+      <c r="I774">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="775" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A775">
+        <v>794</v>
+      </c>
+      <c r="B775" s="4">
+        <v>13</v>
+      </c>
+      <c r="D775" s="5" t="s">
+        <v>2234</v>
+      </c>
+      <c r="E775" s="5" t="s">
+        <v>2235</v>
+      </c>
+      <c r="F775" t="s">
+        <v>45</v>
+      </c>
+      <c r="G775" t="s">
+        <v>56</v>
+      </c>
+      <c r="H775">
+        <v>2024</v>
+      </c>
+      <c r="I775">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -51495,9 +52085,45 @@
     <hyperlink ref="E16" r:id="rId1486" display="https://academico.uenf.br/disciplinas/8982" xr:uid="{877F5B1C-DDF8-41F6-92D8-67C161C62454}"/>
     <hyperlink ref="D41" r:id="rId1487" display="https://academico.uenf.br/disciplinas/8864" xr:uid="{1CDA1BCF-F058-48B5-85C4-8D0D65ED3610}"/>
     <hyperlink ref="E41" r:id="rId1488" display="https://academico.uenf.br/disciplinas/8864" xr:uid="{1DEF3338-9741-4FA3-8824-57F86EC21EA3}"/>
+    <hyperlink ref="D758" r:id="rId1489" display="https://academico.uenf.br/disciplinas/9217" xr:uid="{C743123C-1062-46A8-97BE-A0C458B07E0F}"/>
+    <hyperlink ref="E758" r:id="rId1490" display="https://academico.uenf.br/disciplinas/9217" xr:uid="{BFBB5B17-2DDB-4544-9354-EBF8E6A812CC}"/>
+    <hyperlink ref="D759" r:id="rId1491" display="https://academico.uenf.br/disciplinas/8684" xr:uid="{AD3F4634-8AC7-4171-AB5B-C5F1DF6CA620}"/>
+    <hyperlink ref="E759" r:id="rId1492" display="https://academico.uenf.br/disciplinas/8684" xr:uid="{03179501-E2C1-480C-B3CE-BCE5FCE4376C}"/>
+    <hyperlink ref="D760" r:id="rId1493" display="https://academico.uenf.br/disciplinas/9375" xr:uid="{E0D35D3A-ADEB-435C-9161-A2F7C0739E52}"/>
+    <hyperlink ref="E760" r:id="rId1494" display="https://academico.uenf.br/disciplinas/9375" xr:uid="{6A6E23C5-BF97-4C9E-990F-47732D715B70}"/>
+    <hyperlink ref="D761" r:id="rId1495" display="https://academico.uenf.br/disciplinas/10687" xr:uid="{9B22AC06-6C2F-41AB-AEE4-CCC1557B7887}"/>
+    <hyperlink ref="E761" r:id="rId1496" display="https://academico.uenf.br/disciplinas/10687" xr:uid="{ED61208E-C871-405A-AD4B-13422B4EE4E7}"/>
+    <hyperlink ref="D762" r:id="rId1497" display="https://academico.uenf.br/disciplinas/8687" xr:uid="{483C531B-B9DA-41E1-B00B-FA9856256FA1}"/>
+    <hyperlink ref="E762" r:id="rId1498" display="https://academico.uenf.br/disciplinas/8687" xr:uid="{21D4AA89-8F49-4FC1-85D9-90535A65E22A}"/>
+    <hyperlink ref="D763" r:id="rId1499" display="https://academico.uenf.br/disciplinas/9349" xr:uid="{6A2C71DE-BE41-4701-9CCB-8C11777D65C5}"/>
+    <hyperlink ref="E763" r:id="rId1500" display="https://academico.uenf.br/disciplinas/9349" xr:uid="{1F0C7A2D-9242-4FF7-924E-3C219B4E2860}"/>
+    <hyperlink ref="D764" r:id="rId1501" display="https://academico.uenf.br/disciplinas/12377" xr:uid="{8BDD37A9-882D-4CDF-B5EE-A73BC2868D28}"/>
+    <hyperlink ref="E764" r:id="rId1502" display="https://academico.uenf.br/disciplinas/12377" xr:uid="{8299BC96-6E1C-42F9-8A60-BE4FB67AAA42}"/>
+    <hyperlink ref="D765" r:id="rId1503" display="https://academico.uenf.br/disciplinas/12300" xr:uid="{1C65ECB0-85D3-42AD-A229-62B459FE1C04}"/>
+    <hyperlink ref="E765" r:id="rId1504" display="https://academico.uenf.br/disciplinas/12300" xr:uid="{BD591E18-45F3-492D-9242-EE144B7437D9}"/>
+    <hyperlink ref="D766" r:id="rId1505" display="https://academico.uenf.br/disciplinas/12306" xr:uid="{1D0CF890-C12C-4E70-B3B6-96EDE655DEB0}"/>
+    <hyperlink ref="E766" r:id="rId1506" display="https://academico.uenf.br/disciplinas/12306" xr:uid="{E878575B-16E9-4CA2-94C0-C75A5B8A8546}"/>
+    <hyperlink ref="D767" r:id="rId1507" display="https://academico.uenf.br/disciplinas/12305" xr:uid="{E87FAE6C-8AB9-4333-81B0-6F1744667753}"/>
+    <hyperlink ref="E767" r:id="rId1508" display="https://academico.uenf.br/disciplinas/12305" xr:uid="{692F14C5-2C10-412D-BBDF-FA4F44B290CA}"/>
+    <hyperlink ref="D768" r:id="rId1509" display="https://academico.uenf.br/disciplinas/7116" xr:uid="{04E4F661-2A61-4342-8D9F-08689958DCE8}"/>
+    <hyperlink ref="E768" r:id="rId1510" display="https://academico.uenf.br/disciplinas/7116" xr:uid="{63AAFD5A-C11F-4E02-8DB9-A9981101D2E6}"/>
+    <hyperlink ref="D769" r:id="rId1511" display="https://academico.uenf.br/disciplinas/10308" xr:uid="{306DD78B-F644-49FE-BFE7-753F810861CA}"/>
+    <hyperlink ref="E769" r:id="rId1512" display="https://academico.uenf.br/disciplinas/10308" xr:uid="{466076D9-5F42-4ABB-A681-1C7D3F665B4D}"/>
+    <hyperlink ref="D770" r:id="rId1513" display="https://academico.uenf.br/disciplinas/10410" xr:uid="{F5611AFD-60D0-4E6B-AFB8-D3202F37FA2D}"/>
+    <hyperlink ref="E770" r:id="rId1514" display="https://academico.uenf.br/disciplinas/10410" xr:uid="{23DFA8DD-5A67-4B16-837B-C7B206E1654F}"/>
+    <hyperlink ref="D771" r:id="rId1515" display="https://academico.uenf.br/disciplinas/9482" xr:uid="{C2FB7720-18A2-43D8-B803-4EA37FC4E9E9}"/>
+    <hyperlink ref="E771" r:id="rId1516" display="https://academico.uenf.br/disciplinas/9482" xr:uid="{A8CBECF9-6E22-4A2C-9D6F-4E0F55DF50CC}"/>
+    <hyperlink ref="D772" r:id="rId1517" display="https://academico.uenf.br/disciplinas/11579" xr:uid="{A774A81A-DF72-43B9-AC01-EBEA1B84C620}"/>
+    <hyperlink ref="E772" r:id="rId1518" display="https://academico.uenf.br/disciplinas/11579" xr:uid="{999E722E-EA0F-4D81-80A6-99858DD14464}"/>
+    <hyperlink ref="D773" r:id="rId1519" display="https://academico.uenf.br/disciplinas/12639" xr:uid="{9D5566D3-5CB0-419A-A2C3-10CB77E940C2}"/>
+    <hyperlink ref="E773" r:id="rId1520" display="https://academico.uenf.br/disciplinas/12639" xr:uid="{6C963298-CEB2-49EB-B074-736D08276CF4}"/>
+    <hyperlink ref="D774" r:id="rId1521" display="https://academico.uenf.br/disciplinas/12642" xr:uid="{5117AF9B-C6D0-4BFA-9B11-AE115905ED06}"/>
+    <hyperlink ref="E774" r:id="rId1522" display="https://academico.uenf.br/disciplinas/12642" xr:uid="{F850FD2E-42A4-4F09-AE1E-9BEE2B819579}"/>
+    <hyperlink ref="D775" r:id="rId1523" display="https://academico.uenf.br/disciplinas/12652" xr:uid="{E3A6C06B-33A8-406F-B06F-CFE578426BC1}"/>
+    <hyperlink ref="E775" r:id="rId1524" display="https://academico.uenf.br/disciplinas/12652" xr:uid="{6BD7BFAE-B604-44FD-9092-1F49614444F6}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1489"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1525"/>
 </worksheet>
 </file>
 
